--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>Equinox Minerals Limited</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
   </si>
   <si>
     <t>2,193,206,496</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
   </si>
   <si>
     <t>名</t>
@@ -1341,13 +1353,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1366,13 +1378,22 @@
       <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1387,15 +1408,24 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1411,6 +1441,15 @@
       </c>
       <c r="G3" s="2">
         <v>1170</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -1428,22 +1467,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1451,14 +1490,14 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1468,22 +1507,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1501,13 +1540,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1515,10 +1554,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1529,10 +1568,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1543,10 +1582,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1557,10 +1596,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1571,10 +1610,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1585,10 +1624,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1599,10 +1638,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1623,22 +1662,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1649,19 +1688,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1672,19 +1711,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1695,19 +1734,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -215,13 +218,16 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>Equinox Minerals Limited</t>
+    <t>EquinoxMineralsLimited</t>
   </si>
   <si>
     <t>中興商銀</t>
   </si>
   <si>
-    <t>2,193,206,496</t>
+    <t>2193206496</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-18</t>
@@ -1353,13 +1359,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1387,13 +1393,16 @@
       <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1408,24 +1417,27 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>913</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1443,12 +1455,15 @@
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>913</v>
       </c>
     </row>
@@ -1467,22 +1482,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1490,14 +1505,14 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1507,22 +1522,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1540,13 +1555,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1554,10 +1569,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1568,10 +1583,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1582,10 +1597,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1596,10 +1611,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1610,10 +1625,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1624,10 +1639,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1638,10 +1653,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1662,22 +1677,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1688,19 +1703,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1711,19 +1726,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1734,19 +1749,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>土地坐落</t>
   </si>
@@ -209,6 +209,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>EquinoxMineralsLimited</t>
   </si>
   <si>
@@ -230,7 +239,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmped121</t>
   </si>
   <si>
     <t>名</t>
@@ -1359,13 +1374,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1396,13 +1411,22 @@
       <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1417,27 +1441,36 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2">
         <v>69</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1455,16 +1488,25 @@
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1482,22 +1524,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1505,14 +1547,14 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1522,22 +1564,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1555,13 +1597,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1569,10 +1611,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1583,10 +1625,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1597,10 +1639,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1611,10 +1653,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1625,10 +1667,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1639,10 +1681,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1653,10 +1695,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1677,22 +1719,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1703,19 +1745,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1726,19 +1768,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1749,19 +1791,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,9 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區育才段03160000地號</t>
+  </si>
+  <si>
+    <t>高雄市美濃區福安段02410000地號</t>
+  </si>
+  <si>
+    <t>10000分之36</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>李永得</t>
+  </si>
+  <si>
+    <t>99年06月18日</t>
+  </si>
+  <si>
+    <t>95年04月10日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>133075(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmped121</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,46 +128,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鳥松區育才段0316-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市美濃區福安段0241-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 36</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
-    <t>李永得</t>
-  </si>
-  <si>
-    <t>99年06月 18日</t>
-  </si>
-  <si>
-    <t>95年04月 10日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>133,075(超過 五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區育才段02053-000 建號</t>
+    <t>高雄市鳥松區育才段02053000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>99年06月 18曰</t>
+    <t>99年06月18曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -98,7 +149,7 @@
     <t>NISSAN</t>
   </si>
   <si>
-    <t>91年08月 27日</t>
+    <t>91年08月27日</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -125,7 +176,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行屏東分 行</t>
+    <t>臺灣新光商業銀行屏東分行</t>
   </si>
   <si>
     <t>彰化商業銀行屏東分行</t>
@@ -140,7 +191,7 @@
     <t>京城商業銀行營業部</t>
   </si>
   <si>
-    <t>National Australia Bank Sydency</t>
+    <t>NationalAustraliaBankSydency</t>
   </si>
   <si>
     <t>高雄銀行市府分行</t>
@@ -149,7 +200,7 @@
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南京東 路分行</t>
+    <t>國泰世華商業銀行南京東路分行</t>
   </si>
   <si>
     <t>第一商業銀行總行</t>
@@ -158,10 +209,10 @@
     <t>臺灣土地銀行總行</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行總管理 處</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行敦北分 行</t>
+    <t>兆豐國際商業銀行總管理處</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行敦北分行</t>
   </si>
   <si>
     <t>花旗（台灣）銀行營業部</t>
@@ -188,12 +239,6 @@
     <t>新加坡幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -206,27 +251,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>EquinoxMineralsLimited</t>
   </si>
   <si>
@@ -239,15 +263,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-18</t>
-  </si>
-  <si>
-    <t>tmped121</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -266,22 +281,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>^他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>m ••新臺幣 元）</t>
+    <t>m新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -320,7 +335,7 @@
     <t>國泰人壽雙星還本終身險</t>
   </si>
   <si>
-    <t>台灣人壽歲歲長泰還本终身 壽險</t>
+    <t>台灣人壽歲歲長泰還本终身壽險</t>
   </si>
   <si>
     <t>台灣人壽新祥和定期壽險</t>
@@ -350,10 +365,10 @@
     <t>淡海股份有限公司</t>
   </si>
   <si>
-    <t>先驅媒體社會企業股份有限 公司</t>
-  </si>
-  <si>
-    <t>臺北市仁愛路四段145號3 樓之2</t>
+    <t>先驅媒體社會企業股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北市仁愛路四段145號3樓之2</t>
   </si>
   <si>
     <t>新北市真理街17號</t>
@@ -362,13 +377,13 @@
     <t>臺北市仁愛路二段98號7樓</t>
   </si>
   <si>
-    <t>84年07月 08日</t>
-  </si>
-  <si>
-    <t>97年02月 27日</t>
-  </si>
-  <si>
-    <t>98年07月 24日</t>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>97年02月27日</t>
+  </si>
+  <si>
+    <t>98年07月24日</t>
   </si>
   <si>
     <t>發起設立</t>
@@ -730,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,57 +773,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>14538.71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>17000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1140.65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>913</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -826,25 +904,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -852,22 +930,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>133.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>17000000</v>
@@ -888,22 +966,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -911,22 +989,22 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -944,22 +1022,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -967,16 +1045,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>2000</v>
@@ -990,16 +1068,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1011,16 +1089,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1032,16 +1110,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1053,16 +1131,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1074,16 +1152,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1095,16 +1173,16 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1116,16 +1194,16 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1137,16 +1215,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
         <v>7228</v>
@@ -1160,16 +1238,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1181,16 +1259,16 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1202,16 +1280,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>28437</v>
@@ -1225,16 +1303,16 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1246,16 +1324,16 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1267,16 +1345,16 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1288,16 +1366,16 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1309,16 +1387,16 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1330,16 +1408,16 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1351,16 +1429,16 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1382,43 +1460,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1426,10 +1504,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>3497</v>
@@ -1438,28 +1516,28 @@
         <v>20850</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>913</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1470,10 +1548,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>117</v>
@@ -1482,28 +1560,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>913</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1524,22 +1602,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1547,14 +1625,14 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1564,22 +1642,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1597,13 +1675,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1611,13 +1689,13 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1625,13 +1703,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1639,13 +1717,13 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1653,13 +1731,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1667,13 +1745,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1681,13 +1759,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1695,13 +1773,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1719,22 +1797,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1742,22 +1820,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1765,22 +1843,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1788,22 +1866,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -71,15 +71,27 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鳥松區育才段03160000地號</t>
+  </si>
+  <si>
     <t>高雄市美濃區福安段02410000地號</t>
   </si>
   <si>
+    <t>10000分之36</t>
+  </si>
+  <si>
     <t>12分之1</t>
   </si>
   <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
     <t>李永得</t>
   </si>
   <si>
+    <t>99年06月18日</t>
+  </si>
+  <si>
     <t>95年04月10日</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>2012-04-18</t>
   </si>
   <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
     <t>tmped121</t>
   </si>
   <si>
@@ -200,7 +209,13 @@
     <t>currency</t>
   </si>
   <si>
+    <t>EquinoxMineralsLimited</t>
+  </si>
+  <si>
     <t>中興商銀</t>
+  </si>
+  <si>
+    <t>2193206496</t>
   </si>
   <si>
     <t>stock</t>
@@ -646,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -704,54 +719,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1140.65</v>
+        <v>14538.71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>17000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>913</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0036</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>52.339356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1140.65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>913</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.0833333333333333</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>95.0541666666667</v>
       </c>
     </row>
@@ -762,33 +830,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>133.61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>133.61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>17000000</v>
       </c>
     </row>
   </sheetData>
@@ -797,552 +945,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G1" s="1">
-        <v>58320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>7200944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>102866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7228</v>
-      </c>
-      <c r="G9" s="2">
-        <v>216840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>5598972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>437987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>28437</v>
-      </c>
-      <c r="G12" s="2">
-        <v>853110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>21028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>99657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>19411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>5530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>2705</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1170</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2">
-        <v>913</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1352,39 +954,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1392,107 +1000,437 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>7200944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>102866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7228</v>
+      </c>
+      <c r="G10" s="2">
+        <v>216840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>5598972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>437987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>28437</v>
+      </c>
+      <c r="G13" s="2">
+        <v>853110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>21028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>99657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>19411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>2705</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1438,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3497</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20850</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1170</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1510,68 +1590,280 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E2" s="2">
-        <v>280800</v>
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <v>280800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>118</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2">
         <v>500000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
+      <c r="F4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>99年06月18曰</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>NISSAN</t>
@@ -946,38 +949,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1">
-        <v>3000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -986,13 +1010,34 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1010,13 +1055,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1033,13 +1078,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1056,13 +1101,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1077,13 +1122,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1098,13 +1143,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1119,13 +1164,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1140,13 +1185,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1161,13 +1206,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1182,13 +1227,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1203,13 +1248,13 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1226,13 +1271,13 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1247,13 +1292,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1268,13 +1313,13 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1291,13 +1336,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1312,13 +1357,13 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1333,13 +1378,13 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1354,13 +1399,13 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1375,13 +1420,13 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1396,13 +1441,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1417,13 +1462,13 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -1454,13 +1499,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1492,7 +1537,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1504,13 +1549,13 @@
         <v>20850</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1536,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1548,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1590,14 +1635,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1607,16 +1652,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1624,22 +1669,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1657,10 +1702,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1671,10 +1716,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1685,10 +1730,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1699,10 +1744,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1713,10 +1758,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1727,10 +1772,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1741,10 +1786,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1755,10 +1800,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1782,19 +1827,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1805,19 +1850,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1828,19 +1873,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1851,19 +1896,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,9 @@
     <t>99年06月18曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行城中分行</t>
@@ -915,7 +921,7 @@
         <v>17000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -960,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1001,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -1010,16 +1016,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1055,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1078,13 +1084,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1101,13 +1107,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1122,13 +1128,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1143,13 +1149,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1164,13 +1170,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1185,13 +1191,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1206,13 +1212,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1227,13 +1233,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1248,13 +1254,13 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1271,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1292,13 +1298,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1313,13 +1319,13 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1336,13 +1342,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1357,13 +1363,13 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1378,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1399,13 +1405,13 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1420,13 +1426,13 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1441,13 +1447,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1462,13 +1468,13 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -1499,13 +1505,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1537,7 +1543,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1549,13 +1555,13 @@
         <v>20850</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1581,7 +1587,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1593,13 +1599,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1635,14 +1641,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1652,16 +1658,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1669,22 +1675,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1708,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1716,10 +1722,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1730,10 +1736,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1744,10 +1750,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1758,10 +1764,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1772,10 +1778,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1786,10 +1792,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1800,10 +1806,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1827,19 +1833,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1850,19 +1856,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1873,19 +1879,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1896,19 +1902,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -140,66 +140,75 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行營業部</t>
+  </si>
+  <si>
+    <t>京城商業銀行營業部</t>
+  </si>
+  <si>
+    <t>NationalAustraliaBankSydency</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行松山分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行總行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行總行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行總管理處</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行敦北分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行營業部</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行營業部</t>
-  </si>
-  <si>
-    <t>京城商業銀行營業部</t>
-  </si>
-  <si>
-    <t>NationalAustraliaBankSydency</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行松山分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行總行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行總行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行總管理處</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行敦北分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行營業部</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -209,13 +218,13 @@
     <t>新加坡幣</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>EquinoxMineralsLimited</t>
@@ -1053,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1070,418 +1079,810 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G1" s="1">
-        <v>58320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="2">
         <v>58320</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>913</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>7200944</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>913</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>913</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>913</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2835</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>913</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2057</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>913</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>102866</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>913</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>3364</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>913</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2">
-        <v>7228</v>
-      </c>
-      <c r="G10" s="2">
         <v>216840</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>913</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>5598972</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>913</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>437987</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>913</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>28437</v>
-      </c>
-      <c r="G13" s="2">
         <v>853110</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>913</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>21028</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>913</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>99657</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>913</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1632</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>913</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>913</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>19411</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>913</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>5530</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>913</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>2705</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2">
+        <v>913</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1505,13 +1906,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1543,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1555,13 +1956,13 @@
         <v>20850</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1587,7 +1988,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1599,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1641,14 +2042,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1658,16 +2059,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1675,22 +2076,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +2109,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1722,10 +2123,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1736,10 +2137,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1750,10 +2151,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1764,10 +2165,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1778,10 +2179,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1792,10 +2193,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1806,10 +2207,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1833,19 +2234,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1856,19 +2257,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1879,19 +2280,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1902,19 +2303,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -12,16 +12,15 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -237,33 +236,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>m新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -2034,73 +2006,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>89</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2109,10 +2014,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2123,10 +2028,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2137,10 +2042,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2151,10 +2056,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2165,10 +2070,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -2179,10 +2084,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -2193,10 +2098,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -2207,10 +2112,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -2221,7 +2126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2234,19 +2139,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2257,19 +2162,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2280,19 +2185,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2303,19 +2208,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -238,15 +238,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
     <t>國泰人壽得意還本終身險</t>
   </si>
   <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
     <t>國泰人壽富貴年年終身險</t>
   </si>
   <si>
@@ -265,34 +268,43 @@
     <t>台灣人壽新祥和定期壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>玉山社事業股份有限公司</t>
   </si>
   <si>
+    <t>淡海股份有限公司</t>
+  </si>
+  <si>
+    <t>先驅媒體社會企業股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市仁愛路四段145號3樓之2</t>
   </si>
   <si>
+    <t>新北市真理街17號</t>
+  </si>
+  <si>
+    <t>臺北市仁愛路二段98號7樓</t>
+  </si>
+  <si>
     <t>84年07月08日</t>
   </si>
   <si>
+    <t>97年02月27日</t>
+  </si>
+  <si>
+    <t>98年07月24日</t>
+  </si>
+  <si>
     <t>發起設立</t>
   </si>
   <si>
-    <t>淡海股份有限公司</t>
-  </si>
-  <si>
-    <t>先驅媒體社會企業股份有限公司</t>
-  </si>
-  <si>
-    <t>新北市真理街17號</t>
-  </si>
-  <si>
-    <t>臺北市仁愛路二段98號7樓</t>
-  </si>
-  <si>
-    <t>97年02月27日</t>
-  </si>
-  <si>
-    <t>98年07月24日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2006,94 +2018,220 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>913</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>913</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>913</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>913</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>913</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -2101,13 +2239,34 @@
         <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>913</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -2115,10 +2274,31 @@
         <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>913</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2128,33 +2308,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1000000</v>
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
@@ -2162,22 +2363,43 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>117</v>
       </c>
@@ -2188,19 +2410,40 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>118</v>
       </c>
@@ -2211,16 +2454,37 @@
         <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>913</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2012-04-18_財產申報表_tmped121.xlsx
@@ -13,14 +13,15 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -269,6 +270,33 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>京城銀行忠孝分行臺北市南港區忠孝東路</t>
+  </si>
+  <si>
+    <t>台灣銀行高雄三民分行高雄市三民區九如二路</t>
+  </si>
+  <si>
+    <t>98年11月16日</t>
+  </si>
+  <si>
+    <t>99年06月21曰</t>
+  </si>
+  <si>
+    <t>購屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
   <si>
     <t>address</t>
@@ -2308,6 +2336,148 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8245855</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2322,7 +2492,7 @@
         <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2363,22 +2533,22 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2407,22 +2577,22 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -2451,22 +2621,22 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
